--- a/data/trans_bre/CONS_ANTIDE-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/CONS_ANTIDE-Estudios-trans_bre.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -37,7 +40,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -51,81 +54,11 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -133,11 +66,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -534,69 +470,69 @@
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Brecha de género absoluta</t>
         </is>
       </c>
-      <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="n"/>
+      <c r="A2" s="3" t="n"/>
       <c r="B2" s="2" t="n"/>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Andalucía</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>C. Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>Andalucía</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>C. Valenciana</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
     </row>
     <row r="3" hidden="1">
-      <c r="A3" s="4" t="n"/>
+      <c r="A3" s="3" t="n"/>
       <c r="B3" s="2" t="n"/>
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
@@ -608,407 +544,407 @@
       <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>Hasta primaria</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>7,05</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>22,34</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>5,6</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>3,48</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>103,74%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>392,51%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>165,95%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>85,11%</t>
-        </is>
+      <c r="C4" s="4" t="n">
+        <v>5.565536489003008</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>22.33709145348015</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>5.833161700969346</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>3.659306515142545</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0.7028758281692431</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>3.925145195088095</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>1.753533798036093</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>0.9011458108006066</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n"/>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>2,9; 10,87</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>13,29; 31,62</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>2,96; 8,61</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>0,55; 5,9</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>28,76; 225,86</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>101,06; 1179,3</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>60,34; 379,3</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>9,64; 207,17</t>
-        </is>
+      <c r="A5" s="3" t="n"/>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>0.8459238722883929</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>13.28950089957274</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>2.41647252672927</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>0.6992778047415229</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>0.06240354529199695</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>1.010583570659419</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>0.3864382143682985</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>0.08815040812859987</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="3" t="n"/>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>9.819606847825483</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>31.62081738890459</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>9.04963979687318</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>6.408859727218371</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>1.909289810921807</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>11.79295926997247</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>4.100508984104946</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>2.195472435067667</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>Secundaria</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>4,79</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>5,57</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>3,4</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>1,33</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>147,65%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>79,94%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>138,52%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>62,16%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>3,06; 6,5</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>2,43; 8,6</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>1,95; 4,93</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>0,39; 2,29</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>71,69; 260,9</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>25,93; 152,37</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>61,35; 263,42</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>13,61; 134,14</t>
-        </is>
+      <c r="C7" s="4" t="n">
+        <v>5.558234818625438</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>5.567282466492084</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>3.598191066317904</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>1.298355379715276</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>1.701627927470263</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>0.7993518309105779</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>1.505551786132098</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>0.623647966753438</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" s="3" t="n"/>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>3.686925082081488</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>2.425773527521238</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>2.114487379386406</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>0.2509575605310327</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>0.8372493173630978</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>0.2593492967618948</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>0.6618410051531793</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>0.09031040598166204</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n"/>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>7.354574682467999</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>8.599485541886395</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>5.307489680814763</v>
+      </c>
+      <c r="F9" s="4" t="n">
+        <v>2.369745164322343</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>2.970424234385689</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>1.523739093893092</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>3.171797708984676</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>1.417744471564182</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>Estudios universitarios</t>
         </is>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>1,16</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>3,54</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,89</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>1,59</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>50,25%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>81,41%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>193,04%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>202,68%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n"/>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-1,14; 3,21</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0,74; 6,31</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0,62; 3,55</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>0,53; 2,65</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-35,74; 219,05</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>8,58; 195,05</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>7,09; 703,34</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>28,96; 634,71</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="C10" s="4" t="n">
+        <v>1.154762680333135</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>3.541677276130296</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>1.915533986719705</v>
+      </c>
+      <c r="F10" s="4" t="n">
+        <v>1.684898557267193</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>0.4656472826848931</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>0.814054230800703</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>1.765717344978944</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>1.968489753365649</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n"/>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>-1.008880603796043</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>0.7352635456802031</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>0.317452689022594</v>
+      </c>
+      <c r="F11" s="4" t="n">
+        <v>0.5834575801384456</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-0.3192252618383255</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>0.08581615062853826</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>-0.05499548299771606</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>0.2452209152819543</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n"/>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>3.348933858786365</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>6.314532346958596</v>
+      </c>
+      <c r="E12" s="4" t="n">
+        <v>3.627559426343997</v>
+      </c>
+      <c r="F12" s="4" t="n">
+        <v>3.000130950408166</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>2.365114210766397</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>1.950467606137692</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>8.097268004062597</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>7.289254589300679</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B10" s="3" t="inlineStr">
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>4,69</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>7,29</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>3,4</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>1,75</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>135,9%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>123,15%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>153,9%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>86,05%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n"/>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>3,46; 5,99</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>4,93; 9,68</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>2,43; 4,43</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>1,02; 2,56</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>82,23; 208,05</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>68,66; 187,34</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>89,97; 250,21</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>40,5; 146,22</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="C13" s="4" t="n">
+        <v>4.87759359356539</v>
+      </c>
+      <c r="D13" s="4" t="n">
+        <v>7.287522920895115</v>
+      </c>
+      <c r="E13" s="4" t="n">
+        <v>3.529809133172765</v>
+      </c>
+      <c r="F13" s="4" t="n">
+        <v>1.789882167567091</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>1.3612416489219</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>1.231529593487334</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>1.628354953723425</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>0.8925490074277799</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n"/>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="n">
+        <v>3.419244244219465</v>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v>4.931229416538907</v>
+      </c>
+      <c r="E14" s="4" t="n">
+        <v>2.415375295428086</v>
+      </c>
+      <c r="F14" s="4" t="n">
+        <v>1.03829747875663</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>0.7737096811870309</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>0.6866364069705082</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>0.8473673322054345</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>0.4079903868074065</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n"/>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="n">
+        <v>6.119096100414462</v>
+      </c>
+      <c r="D15" s="4" t="n">
+        <v>9.679698426729914</v>
+      </c>
+      <c r="E15" s="4" t="n">
+        <v>4.763770550216682</v>
+      </c>
+      <c r="F15" s="4" t="n">
+        <v>2.660549684147935</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>2.125461417787712</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>1.873380841278683</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>2.742501420372525</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>1.58165015990461</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
@@ -1016,13 +952,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
